--- a/Curves/class8_truck_DecelCurve.xlsx
+++ b/Curves/class8_truck_DecelCurve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\OneDrive\Documents\MATLAB\Crash_Simulator\CrashSimulator\LimitCurves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\codex\w\SafetyVehicleSimulator\Curves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A787E168-B8FB-49AB-8389-0249972DCED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919A52AC-6A64-4A55-AA3B-9760815BC333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="3150" windowWidth="12150" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="86303" yWindow="-98" windowWidth="28995" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,12 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1283,12 +1282,12 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1296,75 +1295,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>6.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>6.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>6.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>6.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>6.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>6.5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>6.5</v>
       </c>
     </row>

--- a/Curves/class8_truck_DecelCurve.xlsx
+++ b/Curves/class8_truck_DecelCurve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\codex\w\SafetyVehicleSimulator\Curves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\codex\z\VDSS---Vehicle-Dynamics-Safety-Simulator\Curves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919A52AC-6A64-4A55-AA3B-9760815BC333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1374C15D-2174-4679-BBDD-E4A76B2A8595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="86303" yWindow="-98" windowWidth="28995" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="92955" yWindow="990" windowWidth="21600" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -201,31 +201,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5</c:v>
+                  <c:v>-9.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5</c:v>
+                  <c:v>-8.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.5</c:v>
+                  <c:v>-7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.5</c:v>
+                  <c:v>-6.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1279,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1300,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -1308,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.5</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -1316,7 +1328,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.5</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -1324,7 +1336,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.5</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -1332,7 +1344,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.5</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -1340,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.5</v>
+        <v>-9.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -1348,7 +1360,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.5</v>
+        <v>-8.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -1356,7 +1368,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.5</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -1364,7 +1376,39 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.5</v>
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-6.5</v>
       </c>
     </row>
   </sheetData>
